--- a/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
@@ -97,10 +97,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>well</t>
@@ -1133,25 +1133,25 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.670995670995671</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="L18">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1159,25 +1159,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6601941747572816</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L19">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="M19">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1341,25 +1341,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.551829268292683</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L26">
         <v>181</v>
       </c>
       <c r="M26">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="10:17">
